--- a/data/raw/tafunel_2013_Ig.xlsx
+++ b/data/raw/tafunel_2013_Ig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/725645646c7e7b0f/Documents/tesis/paper_cap_utilization/data/ChileData/tafunel_ducoing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\capital_stock_paper\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{34EF7D21-0910-4537-80E2-109843356C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E4198D-02E9-4A3D-B866-04A112994812}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED425DDF-9B92-4100-971F-E8699D42A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tafunell2013" sheetId="3" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>I_gr_ME</t>
+    <t>Ig_ME</t>
   </si>
   <si>
-    <t>I_gr_RNR</t>
+    <t>Ig_NRC</t>
   </si>
   <si>
-    <t>I_gr_tot</t>
+    <t>Ig_tot</t>
   </si>
 </sst>
 </file>
@@ -90,12 +90,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +404,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
